--- a/similarities/split_global/harmonic_similarity_timestamps_239.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_239.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:7', 'G']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7', 'F']]</t>
+          <t>['F:maj6', 'G:7', 'C:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.390000', '0:00:31.310000')]</t>
+          <t>('0:00:02.600000', '0:00:03.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.180000', '0:00:15.540000')]</t>
+          <t>('0:00:44.780000', '0:00:49.170000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=2.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=44.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:46.390000', '0:00:59.490000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:50.130000', '0:02:18.500000')]</t>
+          <t>('0:00:21.780000', '0:00:25.300000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=46.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=110.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['Ab:maj6', 'F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['F:min7', 'F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:01.420000', '0:00:05.910000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:18.600000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=1.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=78.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:20.690000', '0:01:27.640000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.180000', '0:00:14.120000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=80.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:40.460000', '0:00:47.160000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:00:59.490000')]</t>
+          <t>('0:00:31.680000', '0:00:33.780000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=40.46</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=31.68</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.359000', '0:00:13.688000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:27.160000', '0:00:38.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:01:03.120000', '0:01:09.420000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:01:04.980000')]</t>
+          <t>('0:00:07.560000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:25.640000', '0:00:56.260000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:17.180000', '0:00:39.300000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:20.780000', '0:00:31.600000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:22.947687', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
